--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.1895841445232</v>
+        <v>1.196205</v>
       </c>
       <c r="H2">
-        <v>1.1895841445232</v>
+        <v>2.39241</v>
       </c>
       <c r="I2">
-        <v>0.1675618823455244</v>
+        <v>0.1612076625294354</v>
       </c>
       <c r="J2">
-        <v>0.1675618823455244</v>
+        <v>0.1197188969614126</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.105217781177898</v>
+        <v>0.1341725</v>
       </c>
       <c r="N2">
-        <v>0.105217781177898</v>
+        <v>0.268345</v>
       </c>
       <c r="O2">
-        <v>0.01393559333010025</v>
+        <v>0.01633512969336317</v>
       </c>
       <c r="P2">
-        <v>0.01393559333010025</v>
+        <v>0.01188426112752495</v>
       </c>
       <c r="Q2">
-        <v>0.1251654042111391</v>
+        <v>0.1604978153625</v>
       </c>
       <c r="R2">
-        <v>0.1251654042111391</v>
+        <v>0.64199126145</v>
       </c>
       <c r="S2">
-        <v>0.002335074249993333</v>
+        <v>0.00263334807498225</v>
       </c>
       <c r="T2">
-        <v>0.002335074249993333</v>
+        <v>0.00142277063338868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.1895841445232</v>
+        <v>1.196205</v>
       </c>
       <c r="H3">
-        <v>1.1895841445232</v>
+        <v>2.39241</v>
       </c>
       <c r="I3">
-        <v>0.1675618823455244</v>
+        <v>0.1612076625294354</v>
       </c>
       <c r="J3">
-        <v>0.1675618823455244</v>
+        <v>0.1197188969614126</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.46368627355349</v>
+        <v>5.923689</v>
       </c>
       <c r="N3">
-        <v>5.46368627355349</v>
+        <v>17.771067</v>
       </c>
       <c r="O3">
-        <v>0.7236391904402391</v>
+        <v>0.7211927040052828</v>
       </c>
       <c r="P3">
-        <v>0.7236391904402391</v>
+        <v>0.787031622511101</v>
       </c>
       <c r="Q3">
-        <v>6.499514561668279</v>
+        <v>7.085946400245001</v>
       </c>
       <c r="R3">
-        <v>6.499514561668279</v>
+        <v>42.51567840147001</v>
       </c>
       <c r="S3">
-        <v>0.1212543448891578</v>
+        <v>0.1162617900459746</v>
       </c>
       <c r="T3">
-        <v>0.1212543448891578</v>
+        <v>0.09422255772077986</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.1895841445232</v>
+        <v>1.196205</v>
       </c>
       <c r="H4">
-        <v>1.1895841445232</v>
+        <v>2.39241</v>
       </c>
       <c r="I4">
-        <v>0.1675618823455244</v>
+        <v>0.1612076625294354</v>
       </c>
       <c r="J4">
-        <v>0.1675618823455244</v>
+        <v>0.1197188969614126</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.149987742647476</v>
+        <v>0.007277666666666668</v>
       </c>
       <c r="N4">
-        <v>0.149987742647476</v>
+        <v>0.021833</v>
       </c>
       <c r="O4">
-        <v>0.01986516121738955</v>
+        <v>0.00088603572911786</v>
       </c>
       <c r="P4">
-        <v>0.01986516121738955</v>
+        <v>0.0009669234500260939</v>
       </c>
       <c r="Q4">
-        <v>0.1784230405262636</v>
+        <v>0.008705581255000001</v>
       </c>
       <c r="R4">
-        <v>0.1784230405262636</v>
+        <v>0.05223348753</v>
       </c>
       <c r="S4">
-        <v>0.003328643806683102</v>
+        <v>0.0001428357488086542</v>
       </c>
       <c r="T4">
-        <v>0.003328643806683102</v>
+        <v>0.0001157590088832475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.1895841445232</v>
+        <v>1.196205</v>
       </c>
       <c r="H5">
-        <v>1.1895841445232</v>
+        <v>2.39241</v>
       </c>
       <c r="I5">
-        <v>0.1675618823455244</v>
+        <v>0.1612076625294354</v>
       </c>
       <c r="J5">
-        <v>0.1675618823455244</v>
+        <v>0.1197188969614126</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.83139893553398</v>
+        <v>0.039371</v>
       </c>
       <c r="N5">
-        <v>1.83139893553398</v>
+        <v>0.118113</v>
       </c>
       <c r="O5">
-        <v>0.242560055012271</v>
+        <v>0.004793310038624915</v>
       </c>
       <c r="P5">
-        <v>0.242560055012271</v>
+        <v>0.005230899530661476</v>
       </c>
       <c r="Q5">
-        <v>2.178603136007889</v>
+        <v>0.04709578705499999</v>
       </c>
       <c r="R5">
-        <v>2.178603136007889</v>
+        <v>0.28257472233</v>
       </c>
       <c r="S5">
-        <v>0.04064381939969008</v>
+        <v>0.0007727183071056003</v>
       </c>
       <c r="T5">
-        <v>0.04064381939969008</v>
+        <v>0.0006262375219267627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8932794239533181</v>
+        <v>1.196205</v>
       </c>
       <c r="H6">
-        <v>0.8932794239533181</v>
+        <v>2.39241</v>
       </c>
       <c r="I6">
-        <v>0.1258251317716891</v>
+        <v>0.1612076625294354</v>
       </c>
       <c r="J6">
-        <v>0.1258251317716891</v>
+        <v>0.1197188969614126</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.105217781177898</v>
+        <v>0.1820473333333333</v>
       </c>
       <c r="N6">
-        <v>0.105217781177898</v>
+        <v>0.5461419999999999</v>
       </c>
       <c r="O6">
-        <v>0.01393559333010025</v>
+        <v>0.02216375785150397</v>
       </c>
       <c r="P6">
-        <v>0.01393559333010025</v>
+        <v>0.02418712530775207</v>
       </c>
       <c r="Q6">
-        <v>0.093988878960239</v>
+        <v>0.21776593037</v>
       </c>
       <c r="R6">
-        <v>0.093988878960239</v>
+        <v>1.30659558222</v>
       </c>
       <c r="S6">
-        <v>0.001753447867076536</v>
+        <v>0.003572967596109377</v>
       </c>
       <c r="T6">
-        <v>0.001753447867076536</v>
+        <v>0.002895655962511544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8932794239533181</v>
+        <v>1.196205</v>
       </c>
       <c r="H7">
-        <v>0.8932794239533181</v>
+        <v>2.39241</v>
       </c>
       <c r="I7">
-        <v>0.1258251317716891</v>
+        <v>0.1612076625294354</v>
       </c>
       <c r="J7">
-        <v>0.1258251317716891</v>
+        <v>0.1197188969614126</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.46368627355349</v>
+        <v>1.927182</v>
       </c>
       <c r="N7">
-        <v>5.46368627355349</v>
+        <v>3.854364</v>
       </c>
       <c r="O7">
-        <v>0.7236391904402391</v>
+        <v>0.2346290626821072</v>
       </c>
       <c r="P7">
-        <v>0.7236391904402391</v>
+        <v>0.1706991680729343</v>
       </c>
       <c r="Q7">
-        <v>4.880598527101513</v>
+        <v>2.30530474431</v>
       </c>
       <c r="R7">
-        <v>4.880598527101513</v>
+        <v>9.22121897724</v>
       </c>
       <c r="S7">
-        <v>0.09105199649230149</v>
+        <v>0.03782400275645488</v>
       </c>
       <c r="T7">
-        <v>0.09105199649230149</v>
+        <v>0.02043591611392247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8932794239533181</v>
+        <v>1.046327666666667</v>
       </c>
       <c r="H8">
-        <v>0.8932794239533181</v>
+        <v>3.138983</v>
       </c>
       <c r="I8">
-        <v>0.1258251317716891</v>
+        <v>0.1410093064175552</v>
       </c>
       <c r="J8">
-        <v>0.1258251317716891</v>
+        <v>0.1570782526158249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.149987742647476</v>
+        <v>0.1341725</v>
       </c>
       <c r="N8">
-        <v>0.149987742647476</v>
+        <v>0.268345</v>
       </c>
       <c r="O8">
-        <v>0.01986516121738955</v>
+        <v>0.01633512969336317</v>
       </c>
       <c r="P8">
-        <v>0.01986516121738955</v>
+        <v>0.01188426112752495</v>
       </c>
       <c r="Q8">
-        <v>0.1339809643521959</v>
+        <v>0.1403883988558333</v>
       </c>
       <c r="R8">
-        <v>0.1339809643521959</v>
+        <v>0.842330393135</v>
       </c>
       <c r="S8">
-        <v>0.002499536527843888</v>
+        <v>0.002303405308301952</v>
       </c>
       <c r="T8">
-        <v>0.002499536527843888</v>
+        <v>0.001866758971541792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8932794239533181</v>
+        <v>1.046327666666667</v>
       </c>
       <c r="H9">
-        <v>0.8932794239533181</v>
+        <v>3.138983</v>
       </c>
       <c r="I9">
-        <v>0.1258251317716891</v>
+        <v>0.1410093064175552</v>
       </c>
       <c r="J9">
-        <v>0.1258251317716891</v>
+        <v>0.1570782526158249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.83139893553398</v>
+        <v>5.923689</v>
       </c>
       <c r="N9">
-        <v>1.83139893553398</v>
+        <v>17.771067</v>
       </c>
       <c r="O9">
-        <v>0.242560055012271</v>
+        <v>0.7211927040052828</v>
       </c>
       <c r="P9">
-        <v>0.242560055012271</v>
+        <v>0.787031622511101</v>
       </c>
       <c r="Q9">
-        <v>1.635950986162513</v>
+        <v>6.198119689429001</v>
       </c>
       <c r="R9">
-        <v>1.635950986162513</v>
+        <v>55.78307720486101</v>
       </c>
       <c r="S9">
-        <v>0.03052015088446716</v>
+        <v>0.1016948829851861</v>
       </c>
       <c r="T9">
-        <v>0.03052015088446716</v>
+        <v>0.1236255520174413</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.40166893445414</v>
+        <v>1.046327666666667</v>
       </c>
       <c r="H10">
-        <v>1.40166893445414</v>
+        <v>3.138983</v>
       </c>
       <c r="I10">
-        <v>0.1974356216529083</v>
+        <v>0.1410093064175552</v>
       </c>
       <c r="J10">
-        <v>0.1974356216529083</v>
+        <v>0.1570782526158249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.105217781177898</v>
+        <v>0.007277666666666668</v>
       </c>
       <c r="N10">
-        <v>0.105217781177898</v>
+        <v>0.021833</v>
       </c>
       <c r="O10">
-        <v>0.01393559333010025</v>
+        <v>0.00088603572911786</v>
       </c>
       <c r="P10">
-        <v>0.01393559333010025</v>
+        <v>0.0009669234500260939</v>
       </c>
       <c r="Q10">
-        <v>0.1474804952292532</v>
+        <v>0.007614823982111113</v>
       </c>
       <c r="R10">
-        <v>0.1474804952292532</v>
+        <v>0.06853341583900001</v>
       </c>
       <c r="S10">
-        <v>0.002751382532230466</v>
+        <v>0.0001249392836240822</v>
       </c>
       <c r="T10">
-        <v>0.002751382532230466</v>
+        <v>0.0001518826459433638</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.40166893445414</v>
+        <v>1.046327666666667</v>
       </c>
       <c r="H11">
-        <v>1.40166893445414</v>
+        <v>3.138983</v>
       </c>
       <c r="I11">
-        <v>0.1974356216529083</v>
+        <v>0.1410093064175552</v>
       </c>
       <c r="J11">
-        <v>0.1974356216529083</v>
+        <v>0.1570782526158249</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>5.46368627355349</v>
+        <v>0.039371</v>
       </c>
       <c r="N11">
-        <v>5.46368627355349</v>
+        <v>0.118113</v>
       </c>
       <c r="O11">
-        <v>0.7236391904402391</v>
+        <v>0.004793310038624915</v>
       </c>
       <c r="P11">
-        <v>0.7236391904402391</v>
+        <v>0.005230899530661476</v>
       </c>
       <c r="Q11">
-        <v>7.658279317243431</v>
+        <v>0.04119496656433334</v>
       </c>
       <c r="R11">
-        <v>7.658279317243431</v>
+        <v>0.370754699079</v>
       </c>
       <c r="S11">
-        <v>0.1428721534169759</v>
+        <v>0.0006759013239908039</v>
       </c>
       <c r="T11">
-        <v>0.1428721534169759</v>
+        <v>0.0008216605578852435</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.40166893445414</v>
+        <v>1.046327666666667</v>
       </c>
       <c r="H12">
-        <v>1.40166893445414</v>
+        <v>3.138983</v>
       </c>
       <c r="I12">
-        <v>0.1974356216529083</v>
+        <v>0.1410093064175552</v>
       </c>
       <c r="J12">
-        <v>0.1974356216529083</v>
+        <v>0.1570782526158249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.149987742647476</v>
+        <v>0.1820473333333333</v>
       </c>
       <c r="N12">
-        <v>0.149987742647476</v>
+        <v>0.5461419999999999</v>
       </c>
       <c r="O12">
-        <v>0.01986516121738955</v>
+        <v>0.02216375785150397</v>
       </c>
       <c r="P12">
-        <v>0.01986516121738955</v>
+        <v>0.02418712530775207</v>
       </c>
       <c r="Q12">
-        <v>0.2102331594178694</v>
+        <v>0.1904811615095555</v>
       </c>
       <c r="R12">
-        <v>0.2102331594178694</v>
+        <v>1.714330453586</v>
       </c>
       <c r="S12">
-        <v>0.003922090454190551</v>
+        <v>0.003125296122247218</v>
       </c>
       <c r="T12">
-        <v>0.003922090454190551</v>
+        <v>0.003799271379141692</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.40166893445414</v>
+        <v>1.046327666666667</v>
       </c>
       <c r="H13">
-        <v>1.40166893445414</v>
+        <v>3.138983</v>
       </c>
       <c r="I13">
-        <v>0.1974356216529083</v>
+        <v>0.1410093064175552</v>
       </c>
       <c r="J13">
-        <v>0.1974356216529083</v>
+        <v>0.1570782526158249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.83139893553398</v>
+        <v>1.927182</v>
       </c>
       <c r="N13">
-        <v>1.83139893553398</v>
+        <v>3.854364</v>
       </c>
       <c r="O13">
-        <v>0.242560055012271</v>
+        <v>0.2346290626821072</v>
       </c>
       <c r="P13">
-        <v>0.242560055012271</v>
+        <v>0.1706991680729343</v>
       </c>
       <c r="Q13">
-        <v>2.56701499453036</v>
+        <v>2.016463845302</v>
       </c>
       <c r="R13">
-        <v>2.56701499453036</v>
+        <v>12.098783071812</v>
       </c>
       <c r="S13">
-        <v>0.04788999524951137</v>
+        <v>0.03308488139420501</v>
       </c>
       <c r="T13">
-        <v>0.04788999524951137</v>
+        <v>0.02681312704387154</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.63679413544864</v>
+        <v>1.404926333333333</v>
       </c>
       <c r="H14">
-        <v>1.63679413544864</v>
+        <v>4.214779</v>
       </c>
       <c r="I14">
-        <v>0.2305547763145564</v>
+        <v>0.189336184201468</v>
       </c>
       <c r="J14">
-        <v>0.2305547763145564</v>
+        <v>0.2109122988183988</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.105217781177898</v>
+        <v>0.1341725</v>
       </c>
       <c r="N14">
-        <v>0.105217781177898</v>
+        <v>0.268345</v>
       </c>
       <c r="O14">
-        <v>0.01393559333010025</v>
+        <v>0.01633512969336317</v>
       </c>
       <c r="P14">
-        <v>0.01393559333010025</v>
+        <v>0.01188426112752495</v>
       </c>
       <c r="Q14">
-        <v>0.1722198471769017</v>
+        <v>0.1885024784591667</v>
       </c>
       <c r="R14">
-        <v>0.1722198471769017</v>
+        <v>1.131014870755</v>
       </c>
       <c r="S14">
-        <v>0.003212917603031888</v>
+        <v>0.00309283112457748</v>
       </c>
       <c r="T14">
-        <v>0.003212917603031888</v>
+        <v>0.002506536834164423</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.63679413544864</v>
+        <v>1.404926333333333</v>
       </c>
       <c r="H15">
-        <v>1.63679413544864</v>
+        <v>4.214779</v>
       </c>
       <c r="I15">
-        <v>0.2305547763145564</v>
+        <v>0.189336184201468</v>
       </c>
       <c r="J15">
-        <v>0.2305547763145564</v>
+        <v>0.2109122988183988</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.46368627355349</v>
+        <v>5.923689</v>
       </c>
       <c r="N15">
-        <v>5.46368627355349</v>
+        <v>17.771067</v>
       </c>
       <c r="O15">
-        <v>0.7236391904402391</v>
+        <v>0.7211927040052828</v>
       </c>
       <c r="P15">
-        <v>0.7236391904402391</v>
+        <v>0.787031622511101</v>
       </c>
       <c r="Q15">
-        <v>8.942929650483586</v>
+        <v>8.322346666576999</v>
       </c>
       <c r="R15">
-        <v>8.942929650483586</v>
+        <v>74.90111999919301</v>
       </c>
       <c r="S15">
-        <v>0.166838471684396</v>
+        <v>0.136547874650299</v>
       </c>
       <c r="T15">
-        <v>0.166838471684396</v>
+        <v>0.1659946487465906</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.63679413544864</v>
+        <v>1.404926333333333</v>
       </c>
       <c r="H16">
-        <v>1.63679413544864</v>
+        <v>4.214779</v>
       </c>
       <c r="I16">
-        <v>0.2305547763145564</v>
+        <v>0.189336184201468</v>
       </c>
       <c r="J16">
-        <v>0.2305547763145564</v>
+        <v>0.2109122988183988</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.149987742647476</v>
+        <v>0.007277666666666668</v>
       </c>
       <c r="N16">
-        <v>0.149987742647476</v>
+        <v>0.021833</v>
       </c>
       <c r="O16">
-        <v>0.01986516121738955</v>
+        <v>0.00088603572911786</v>
       </c>
       <c r="P16">
-        <v>0.01986516121738955</v>
+        <v>0.0009669234500260939</v>
       </c>
       <c r="Q16">
-        <v>0.2454990575545686</v>
+        <v>0.01022458554522222</v>
       </c>
       <c r="R16">
-        <v>0.2454990575545686</v>
+        <v>0.09202126990700001</v>
       </c>
       <c r="S16">
-        <v>0.004580007800927849</v>
+        <v>0.0001677586240173412</v>
       </c>
       <c r="T16">
-        <v>0.004580007800927849</v>
+        <v>0.0002039360476264207</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.63679413544864</v>
+        <v>1.404926333333333</v>
       </c>
       <c r="H17">
-        <v>1.63679413544864</v>
+        <v>4.214779</v>
       </c>
       <c r="I17">
-        <v>0.2305547763145564</v>
+        <v>0.189336184201468</v>
       </c>
       <c r="J17">
-        <v>0.2305547763145564</v>
+        <v>0.2109122988183988</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>1.83139893553398</v>
+        <v>0.039371</v>
       </c>
       <c r="N17">
-        <v>1.83139893553398</v>
+        <v>0.118113</v>
       </c>
       <c r="O17">
-        <v>0.242560055012271</v>
+        <v>0.004793310038624915</v>
       </c>
       <c r="P17">
-        <v>0.242560055012271</v>
+        <v>0.005230899530661476</v>
       </c>
       <c r="Q17">
-        <v>2.9976230373489</v>
+        <v>0.05531335466966666</v>
       </c>
       <c r="R17">
-        <v>2.9976230373489</v>
+        <v>0.497820192027</v>
       </c>
       <c r="S17">
-        <v>0.05592337922620064</v>
+        <v>0.0009075470324078328</v>
       </c>
       <c r="T17">
-        <v>0.05592337922620064</v>
+        <v>0.001103261044899896</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.90161310615983</v>
+        <v>1.404926333333333</v>
       </c>
       <c r="H18">
-        <v>0.90161310615983</v>
+        <v>4.214779</v>
       </c>
       <c r="I18">
-        <v>0.1269989936492381</v>
+        <v>0.189336184201468</v>
       </c>
       <c r="J18">
-        <v>0.1269989936492381</v>
+        <v>0.2109122988183988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.105217781177898</v>
+        <v>0.1820473333333333</v>
       </c>
       <c r="N18">
-        <v>0.105217781177898</v>
+        <v>0.5461419999999999</v>
       </c>
       <c r="O18">
-        <v>0.01393559333010025</v>
+        <v>0.02216375785150397</v>
       </c>
       <c r="P18">
-        <v>0.01393559333010025</v>
+        <v>0.02418712530775207</v>
       </c>
       <c r="Q18">
-        <v>0.09486573051104992</v>
+        <v>0.2557630925131111</v>
       </c>
       <c r="R18">
-        <v>0.09486573051104992</v>
+        <v>2.301867832618</v>
       </c>
       <c r="S18">
-        <v>0.001769806328827767</v>
+        <v>0.004196401339169089</v>
       </c>
       <c r="T18">
-        <v>0.001769806328827767</v>
+        <v>0.005101362200466661</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.90161310615983</v>
+        <v>1.404926333333333</v>
       </c>
       <c r="H19">
-        <v>0.90161310615983</v>
+        <v>4.214779</v>
       </c>
       <c r="I19">
-        <v>0.1269989936492381</v>
+        <v>0.189336184201468</v>
       </c>
       <c r="J19">
-        <v>0.1269989936492381</v>
+        <v>0.2109122988183988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.46368627355349</v>
+        <v>1.927182</v>
       </c>
       <c r="N19">
-        <v>5.46368627355349</v>
+        <v>3.854364</v>
       </c>
       <c r="O19">
-        <v>0.7236391904402391</v>
+        <v>0.2346290626821072</v>
       </c>
       <c r="P19">
-        <v>0.7236391904402391</v>
+        <v>0.1706991680729343</v>
       </c>
       <c r="Q19">
-        <v>4.926131152181389</v>
+        <v>2.707548740926</v>
       </c>
       <c r="R19">
-        <v>4.926131152181389</v>
+        <v>16.245292445556</v>
       </c>
       <c r="S19">
-        <v>0.09190144895105971</v>
+        <v>0.04442377143099723</v>
       </c>
       <c r="T19">
-        <v>0.09190144895105971</v>
+        <v>0.03600255394465082</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.90161310615983</v>
+        <v>1.669341</v>
       </c>
       <c r="H20">
-        <v>0.90161310615983</v>
+        <v>5.008023</v>
       </c>
       <c r="I20">
-        <v>0.1269989936492381</v>
+        <v>0.22497026895436</v>
       </c>
       <c r="J20">
-        <v>0.1269989936492381</v>
+        <v>0.2506071239952117</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.149987742647476</v>
+        <v>0.1341725</v>
       </c>
       <c r="N20">
-        <v>0.149987742647476</v>
+        <v>0.268345</v>
       </c>
       <c r="O20">
-        <v>0.01986516121738955</v>
+        <v>0.01633512969336317</v>
       </c>
       <c r="P20">
-        <v>0.01986516121738955</v>
+        <v>0.01188426112752495</v>
       </c>
       <c r="Q20">
-        <v>0.135230914534292</v>
+        <v>0.2239796553225</v>
       </c>
       <c r="R20">
-        <v>0.135230914534292</v>
+        <v>1.343877931935</v>
       </c>
       <c r="S20">
-        <v>0.002522855483288346</v>
+        <v>0.003674918520520266</v>
       </c>
       <c r="T20">
-        <v>0.002522855483288346</v>
+        <v>0.002978280501977119</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.90161310615983</v>
+        <v>1.669341</v>
       </c>
       <c r="H21">
-        <v>0.90161310615983</v>
+        <v>5.008023</v>
       </c>
       <c r="I21">
-        <v>0.1269989936492381</v>
+        <v>0.22497026895436</v>
       </c>
       <c r="J21">
-        <v>0.1269989936492381</v>
+        <v>0.2506071239952117</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.83139893553398</v>
+        <v>5.923689</v>
       </c>
       <c r="N21">
-        <v>1.83139893553398</v>
+        <v>17.771067</v>
       </c>
       <c r="O21">
-        <v>0.242560055012271</v>
+        <v>0.7211927040052828</v>
       </c>
       <c r="P21">
-        <v>0.242560055012271</v>
+        <v>0.787031622511101</v>
       </c>
       <c r="Q21">
-        <v>1.651213282884598</v>
+        <v>9.888656918949</v>
       </c>
       <c r="R21">
-        <v>1.651213282884598</v>
+        <v>88.99791227054101</v>
       </c>
       <c r="S21">
-        <v>0.03080488288606225</v>
+        <v>0.1622469165879906</v>
       </c>
       <c r="T21">
-        <v>0.03080488288606225</v>
+        <v>0.1972357314107921</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.0764323075735</v>
+        <v>1.669341</v>
       </c>
       <c r="H22">
-        <v>1.0764323075735</v>
+        <v>5.008023</v>
       </c>
       <c r="I22">
-        <v>0.1516235942660838</v>
+        <v>0.22497026895436</v>
       </c>
       <c r="J22">
-        <v>0.1516235942660838</v>
+        <v>0.2506071239952117</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.105217781177898</v>
+        <v>0.007277666666666668</v>
       </c>
       <c r="N22">
-        <v>0.105217781177898</v>
+        <v>0.021833</v>
       </c>
       <c r="O22">
-        <v>0.01393559333010025</v>
+        <v>0.00088603572911786</v>
       </c>
       <c r="P22">
-        <v>0.01393559333010025</v>
+        <v>0.0009669234500260939</v>
       </c>
       <c r="Q22">
-        <v>0.1132598189910883</v>
+        <v>0.012148907351</v>
       </c>
       <c r="R22">
-        <v>0.1132598189910883</v>
+        <v>0.109340166159</v>
       </c>
       <c r="S22">
-        <v>0.002112964748940265</v>
+        <v>0.0001993316962828175</v>
       </c>
       <c r="T22">
-        <v>0.002112964748940265</v>
+        <v>0.0002423179049345672</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.0764323075735</v>
+        <v>1.669341</v>
       </c>
       <c r="H23">
-        <v>1.0764323075735</v>
+        <v>5.008023</v>
       </c>
       <c r="I23">
-        <v>0.1516235942660838</v>
+        <v>0.22497026895436</v>
       </c>
       <c r="J23">
-        <v>0.1516235942660838</v>
+        <v>0.2506071239952117</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>5.46368627355349</v>
+        <v>0.039371</v>
       </c>
       <c r="N23">
-        <v>5.46368627355349</v>
+        <v>0.118113</v>
       </c>
       <c r="O23">
-        <v>0.7236391904402391</v>
+        <v>0.004793310038624915</v>
       </c>
       <c r="P23">
-        <v>0.7236391904402391</v>
+        <v>0.005230899530661476</v>
       </c>
       <c r="Q23">
-        <v>5.881288423298841</v>
+        <v>0.06572362451099999</v>
       </c>
       <c r="R23">
-        <v>5.881288423298841</v>
+        <v>0.5915126205989999</v>
       </c>
       <c r="S23">
-        <v>0.1097207750063482</v>
+        <v>0.001078352248571081</v>
       </c>
       <c r="T23">
-        <v>0.1097207750063482</v>
+        <v>0.001310900687286975</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.0764323075735</v>
+        <v>1.669341</v>
       </c>
       <c r="H24">
-        <v>1.0764323075735</v>
+        <v>5.008023</v>
       </c>
       <c r="I24">
-        <v>0.1516235942660838</v>
+        <v>0.22497026895436</v>
       </c>
       <c r="J24">
-        <v>0.1516235942660838</v>
+        <v>0.2506071239952117</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.149987742647476</v>
+        <v>0.1820473333333333</v>
       </c>
       <c r="N24">
-        <v>0.149987742647476</v>
+        <v>0.5461419999999999</v>
       </c>
       <c r="O24">
-        <v>0.01986516121738955</v>
+        <v>0.02216375785150397</v>
       </c>
       <c r="P24">
-        <v>0.01986516121738955</v>
+        <v>0.02418712530775207</v>
       </c>
       <c r="Q24">
-        <v>0.1614516519257629</v>
+        <v>0.303899077474</v>
       </c>
       <c r="R24">
-        <v>0.1614516519257629</v>
+        <v>2.735091697265999</v>
       </c>
       <c r="S24">
-        <v>0.003012027144455818</v>
+        <v>0.004986186564892157</v>
       </c>
       <c r="T24">
-        <v>0.003012027144455818</v>
+        <v>0.006061465911087545</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.0764323075735</v>
+        <v>1.669341</v>
       </c>
       <c r="H25">
-        <v>1.0764323075735</v>
+        <v>5.008023</v>
       </c>
       <c r="I25">
-        <v>0.1516235942660838</v>
+        <v>0.22497026895436</v>
       </c>
       <c r="J25">
-        <v>0.1516235942660838</v>
+        <v>0.2506071239952117</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.83139893553398</v>
+        <v>1.927182</v>
       </c>
       <c r="N25">
-        <v>1.83139893553398</v>
+        <v>3.854364</v>
       </c>
       <c r="O25">
-        <v>0.242560055012271</v>
+        <v>0.2346290626821072</v>
       </c>
       <c r="P25">
-        <v>0.242560055012271</v>
+        <v>0.1706991680729343</v>
       </c>
       <c r="Q25">
-        <v>1.971376982264494</v>
+        <v>3.217123927062</v>
       </c>
       <c r="R25">
-        <v>1.971376982264494</v>
+        <v>19.302743562372</v>
       </c>
       <c r="S25">
-        <v>0.03677782736633955</v>
+        <v>0.05278456333610305</v>
       </c>
       <c r="T25">
-        <v>0.03677782736633955</v>
+        <v>0.04277842757913333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.022419333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.067258</v>
+      </c>
+      <c r="I26">
+        <v>0.1377872779762418</v>
+      </c>
+      <c r="J26">
+        <v>0.153489052652375</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1341725</v>
+      </c>
+      <c r="N26">
+        <v>0.268345</v>
+      </c>
+      <c r="O26">
+        <v>0.01633512969336317</v>
+      </c>
+      <c r="P26">
+        <v>0.01188426112752495</v>
+      </c>
+      <c r="Q26">
+        <v>0.1371805580016667</v>
+      </c>
+      <c r="R26">
+        <v>0.8230833480099999</v>
+      </c>
+      <c r="S26">
+        <v>0.002250773055837393</v>
+      </c>
+      <c r="T26">
+        <v>0.00182410398193725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.022419333333333</v>
+      </c>
+      <c r="H27">
+        <v>3.067258</v>
+      </c>
+      <c r="I27">
+        <v>0.1377872779762418</v>
+      </c>
+      <c r="J27">
+        <v>0.153489052652375</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.923689</v>
+      </c>
+      <c r="N27">
+        <v>17.771067</v>
+      </c>
+      <c r="O27">
+        <v>0.7211927040052828</v>
+      </c>
+      <c r="P27">
+        <v>0.787031622511101</v>
+      </c>
+      <c r="Q27">
+        <v>6.056494158254001</v>
+      </c>
+      <c r="R27">
+        <v>54.508447424286</v>
+      </c>
+      <c r="S27">
+        <v>0.09937117958121339</v>
+      </c>
+      <c r="T27">
+        <v>0.1208007381466905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.022419333333333</v>
+      </c>
+      <c r="H28">
+        <v>3.067258</v>
+      </c>
+      <c r="I28">
+        <v>0.1377872779762418</v>
+      </c>
+      <c r="J28">
+        <v>0.153489052652375</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.007277666666666668</v>
+      </c>
+      <c r="N28">
+        <v>0.021833</v>
+      </c>
+      <c r="O28">
+        <v>0.00088603572911786</v>
+      </c>
+      <c r="P28">
+        <v>0.0009669234500260939</v>
+      </c>
+      <c r="Q28">
+        <v>0.007440827101555556</v>
+      </c>
+      <c r="R28">
+        <v>0.066967443914</v>
+      </c>
+      <c r="S28">
+        <v>0.0001220844513048447</v>
+      </c>
+      <c r="T28">
+        <v>0.0001484121643318712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.022419333333333</v>
+      </c>
+      <c r="H29">
+        <v>3.067258</v>
+      </c>
+      <c r="I29">
+        <v>0.1377872779762418</v>
+      </c>
+      <c r="J29">
+        <v>0.153489052652375</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.039371</v>
+      </c>
+      <c r="N29">
+        <v>0.118113</v>
+      </c>
+      <c r="O29">
+        <v>0.004793310038624915</v>
+      </c>
+      <c r="P29">
+        <v>0.005230899530661476</v>
+      </c>
+      <c r="Q29">
+        <v>0.04025367157266666</v>
+      </c>
+      <c r="R29">
+        <v>0.362283044154</v>
+      </c>
+      <c r="S29">
+        <v>0.0006604571427183216</v>
+      </c>
+      <c r="T29">
+        <v>0.0008028858134809829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.022419333333333</v>
+      </c>
+      <c r="H30">
+        <v>3.067258</v>
+      </c>
+      <c r="I30">
+        <v>0.1377872779762418</v>
+      </c>
+      <c r="J30">
+        <v>0.153489052652375</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1820473333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.5461419999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.02216375785150397</v>
+      </c>
+      <c r="P30">
+        <v>0.02418712530775207</v>
+      </c>
+      <c r="Q30">
+        <v>0.1861287131817778</v>
+      </c>
+      <c r="R30">
+        <v>1.675158418636</v>
+      </c>
+      <c r="S30">
+        <v>0.00305388386408329</v>
+      </c>
+      <c r="T30">
+        <v>0.003712458949871148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.022419333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.067258</v>
+      </c>
+      <c r="I31">
+        <v>0.1377872779762418</v>
+      </c>
+      <c r="J31">
+        <v>0.153489052652375</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.927182</v>
+      </c>
+      <c r="N31">
+        <v>3.854364</v>
+      </c>
+      <c r="O31">
+        <v>0.2346290626821072</v>
+      </c>
+      <c r="P31">
+        <v>0.1706991680729343</v>
+      </c>
+      <c r="Q31">
+        <v>1.970388135652</v>
+      </c>
+      <c r="R31">
+        <v>11.822328813912</v>
+      </c>
+      <c r="S31">
+        <v>0.03232889988108457</v>
+      </c>
+      <c r="T31">
+        <v>0.02620045359606323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.0810545</v>
+      </c>
+      <c r="H32">
+        <v>2.162109</v>
+      </c>
+      <c r="I32">
+        <v>0.1456892999209396</v>
+      </c>
+      <c r="J32">
+        <v>0.108194374956777</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.1341725</v>
+      </c>
+      <c r="N32">
+        <v>0.268345</v>
+      </c>
+      <c r="O32">
+        <v>0.01633512969336317</v>
+      </c>
+      <c r="P32">
+        <v>0.01188426112752495</v>
+      </c>
+      <c r="Q32">
+        <v>0.14504778490125</v>
+      </c>
+      <c r="R32">
+        <v>0.580191139605</v>
+      </c>
+      <c r="S32">
+        <v>0.002379853609143833</v>
+      </c>
+      <c r="T32">
+        <v>0.001285810204515683</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.0810545</v>
+      </c>
+      <c r="H33">
+        <v>2.162109</v>
+      </c>
+      <c r="I33">
+        <v>0.1456892999209396</v>
+      </c>
+      <c r="J33">
+        <v>0.108194374956777</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.923689</v>
+      </c>
+      <c r="N33">
+        <v>17.771067</v>
+      </c>
+      <c r="O33">
+        <v>0.7211927040052828</v>
+      </c>
+      <c r="P33">
+        <v>0.787031622511101</v>
+      </c>
+      <c r="Q33">
+        <v>6.403830650050501</v>
+      </c>
+      <c r="R33">
+        <v>38.422983900303</v>
+      </c>
+      <c r="S33">
+        <v>0.1050700601546191</v>
+      </c>
+      <c r="T33">
+        <v>0.08515239446880662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.0810545</v>
+      </c>
+      <c r="H34">
+        <v>2.162109</v>
+      </c>
+      <c r="I34">
+        <v>0.1456892999209396</v>
+      </c>
+      <c r="J34">
+        <v>0.108194374956777</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.007277666666666668</v>
+      </c>
+      <c r="N34">
+        <v>0.021833</v>
+      </c>
+      <c r="O34">
+        <v>0.00088603572911786</v>
+      </c>
+      <c r="P34">
+        <v>0.0009669234500260939</v>
+      </c>
+      <c r="Q34">
+        <v>0.007867554299500002</v>
+      </c>
+      <c r="R34">
+        <v>0.04720532579700001</v>
+      </c>
+      <c r="S34">
+        <v>0.0001290859250801203</v>
+      </c>
+      <c r="T34">
+        <v>0.0001046156783066236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.0810545</v>
+      </c>
+      <c r="H35">
+        <v>2.162109</v>
+      </c>
+      <c r="I35">
+        <v>0.1456892999209396</v>
+      </c>
+      <c r="J35">
+        <v>0.108194374956777</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.039371</v>
+      </c>
+      <c r="N35">
+        <v>0.118113</v>
+      </c>
+      <c r="O35">
+        <v>0.004793310038624915</v>
+      </c>
+      <c r="P35">
+        <v>0.005230899530661476</v>
+      </c>
+      <c r="Q35">
+        <v>0.0425621967195</v>
+      </c>
+      <c r="R35">
+        <v>0.255373180317</v>
+      </c>
+      <c r="S35">
+        <v>0.0006983339838312759</v>
+      </c>
+      <c r="T35">
+        <v>0.0005659539051816165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.0810545</v>
+      </c>
+      <c r="H36">
+        <v>2.162109</v>
+      </c>
+      <c r="I36">
+        <v>0.1456892999209396</v>
+      </c>
+      <c r="J36">
+        <v>0.108194374956777</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.1820473333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.5461419999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.02216375785150397</v>
+      </c>
+      <c r="P36">
+        <v>0.02418712530775207</v>
+      </c>
+      <c r="Q36">
+        <v>0.196803088913</v>
+      </c>
+      <c r="R36">
+        <v>1.180818533478</v>
+      </c>
+      <c r="S36">
+        <v>0.003229022365002842</v>
+      </c>
+      <c r="T36">
+        <v>0.002616910904673477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.0810545</v>
+      </c>
+      <c r="H37">
+        <v>2.162109</v>
+      </c>
+      <c r="I37">
+        <v>0.1456892999209396</v>
+      </c>
+      <c r="J37">
+        <v>0.108194374956777</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.927182</v>
+      </c>
+      <c r="N37">
+        <v>3.854364</v>
+      </c>
+      <c r="O37">
+        <v>0.2346290626821072</v>
+      </c>
+      <c r="P37">
+        <v>0.1706991680729343</v>
+      </c>
+      <c r="Q37">
+        <v>2.083388773419</v>
+      </c>
+      <c r="R37">
+        <v>8.333555093676001</v>
+      </c>
+      <c r="S37">
+        <v>0.03418294388326245</v>
+      </c>
+      <c r="T37">
+        <v>0.01846868979529295</v>
       </c>
     </row>
   </sheetData>
